--- a/Report.xlsx
+++ b/Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\630IS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E2D668-B908-4DE1-8167-FC6E0E8C5719}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2E35B4-BC27-4F1A-8034-14C16CAC137F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{BC6C4450-996F-4A64-8F0A-6B6045CA1229}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="38">
   <si>
     <t>Conv1</t>
   </si>
@@ -283,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -314,6 +314,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,8 +632,8 @@
   <dimension ref="A1:AB45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47:XFD48"/>
+      <pane ySplit="3" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3002,11 +3003,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A61229-672F-4D5B-8534-B6D70DAB54ED}">
-  <dimension ref="A1:AB13"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3351,7 +3352,7 @@
       <c r="AB6" s="4"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="2"/>
       <c r="B7" s="1">
         <v>1</v>
       </c>
@@ -3373,7 +3374,7 @@
       <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="I7" s="26"/>
+      <c r="I7" s="23"/>
       <c r="J7" s="2">
         <v>15</v>
       </c>
@@ -3414,19 +3415,19 @@
         <v>10</v>
       </c>
       <c r="W7" s="16">
-        <v>0.92</v>
+        <v>0.33</v>
       </c>
       <c r="X7" s="4">
         <v>0.86</v>
       </c>
       <c r="Y7" s="4">
-        <v>0.87</v>
+        <v>0.95</v>
       </c>
       <c r="Z7" s="4">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="AA7" s="4">
-        <v>0.72</v>
+        <v>0.78</v>
       </c>
       <c r="AB7" s="4"/>
     </row>
@@ -3860,6 +3861,324 @@
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
+    </row>
+    <row r="15" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2">
+        <v>28</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="23"/>
+      <c r="J15" s="2">
+        <v>15</v>
+      </c>
+      <c r="K15" s="2">
+        <v>32</v>
+      </c>
+      <c r="L15" s="2">
+        <v>4</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2">
+        <v>3</v>
+      </c>
+      <c r="O15" s="2">
+        <v>2</v>
+      </c>
+      <c r="P15" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="24">
+        <v>128</v>
+      </c>
+      <c r="R15" s="2">
+        <v>200</v>
+      </c>
+      <c r="S15" s="23">
+        <v>200</v>
+      </c>
+      <c r="T15" s="2">
+        <v>200</v>
+      </c>
+      <c r="U15" s="23">
+        <v>200</v>
+      </c>
+      <c r="V15" s="2">
+        <v>10</v>
+      </c>
+      <c r="W15" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="X15" s="28">
+        <v>0.86</v>
+      </c>
+      <c r="Y15" s="28">
+        <v>0.95</v>
+      </c>
+      <c r="Z15" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="AA15" s="28">
+        <v>0.78</v>
+      </c>
+      <c r="AB15" s="28"/>
+    </row>
+    <row r="16" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2">
+        <v>28</v>
+      </c>
+      <c r="E16" s="2">
+        <v>28</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="18">
+        <v>2</v>
+      </c>
+      <c r="H16" s="18">
+        <v>2</v>
+      </c>
+      <c r="I16" s="23"/>
+      <c r="J16" s="2">
+        <v>15</v>
+      </c>
+      <c r="K16" s="2">
+        <v>32</v>
+      </c>
+      <c r="L16" s="2">
+        <v>4</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2">
+        <v>3</v>
+      </c>
+      <c r="O16" s="2">
+        <v>2</v>
+      </c>
+      <c r="P16" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="24">
+        <v>128</v>
+      </c>
+      <c r="R16" s="2">
+        <v>200</v>
+      </c>
+      <c r="S16" s="23">
+        <v>200</v>
+      </c>
+      <c r="T16" s="2">
+        <v>200</v>
+      </c>
+      <c r="U16" s="23">
+        <v>200</v>
+      </c>
+      <c r="V16" s="2">
+        <v>10</v>
+      </c>
+      <c r="W16" s="25">
+        <v>0.96</v>
+      </c>
+      <c r="X16" s="28">
+        <v>0.96</v>
+      </c>
+      <c r="Y16" s="28">
+        <v>0.96</v>
+      </c>
+      <c r="Z16" s="28">
+        <v>0.96</v>
+      </c>
+      <c r="AA16" s="28">
+        <v>0.96</v>
+      </c>
+      <c r="AB16" s="28"/>
+    </row>
+    <row r="20" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2">
+        <v>28</v>
+      </c>
+      <c r="E20" s="18">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2</v>
+      </c>
+      <c r="I20" s="23"/>
+      <c r="J20" s="2">
+        <v>15</v>
+      </c>
+      <c r="K20" s="2">
+        <v>32</v>
+      </c>
+      <c r="L20" s="2">
+        <v>4</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1</v>
+      </c>
+      <c r="N20" s="2">
+        <v>3</v>
+      </c>
+      <c r="O20" s="2">
+        <v>2</v>
+      </c>
+      <c r="P20" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="24">
+        <v>2048</v>
+      </c>
+      <c r="R20" s="2">
+        <v>200</v>
+      </c>
+      <c r="S20" s="23">
+        <v>200</v>
+      </c>
+      <c r="T20" s="2">
+        <v>200</v>
+      </c>
+      <c r="U20" s="23">
+        <v>200</v>
+      </c>
+      <c r="V20" s="2">
+        <v>10</v>
+      </c>
+      <c r="W20" s="25">
+        <v>0.91</v>
+      </c>
+      <c r="X20" s="28">
+        <v>0.96</v>
+      </c>
+      <c r="Y20" s="28">
+        <v>0.96</v>
+      </c>
+      <c r="Z20" s="28">
+        <v>0.96</v>
+      </c>
+      <c r="AA20" s="28">
+        <v>0.96</v>
+      </c>
+      <c r="AB20" s="28"/>
+    </row>
+    <row r="21" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>15</v>
+      </c>
+      <c r="D21" s="2">
+        <v>28</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="18">
+        <v>0</v>
+      </c>
+      <c r="H21" s="18">
+        <v>0</v>
+      </c>
+      <c r="I21" s="23"/>
+      <c r="J21" s="2">
+        <v>15</v>
+      </c>
+      <c r="K21" s="2">
+        <v>32</v>
+      </c>
+      <c r="L21" s="2">
+        <v>4</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1</v>
+      </c>
+      <c r="N21" s="2">
+        <v>3</v>
+      </c>
+      <c r="O21" s="2">
+        <v>2</v>
+      </c>
+      <c r="P21" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="24">
+        <v>8192</v>
+      </c>
+      <c r="R21" s="2">
+        <v>200</v>
+      </c>
+      <c r="S21" s="23">
+        <v>200</v>
+      </c>
+      <c r="T21" s="2">
+        <v>200</v>
+      </c>
+      <c r="U21" s="23">
+        <v>200</v>
+      </c>
+      <c r="V21" s="2">
+        <v>10</v>
+      </c>
+      <c r="W21" s="25">
+        <v>0.91</v>
+      </c>
+      <c r="X21" s="28">
+        <v>0.96</v>
+      </c>
+      <c r="Y21" s="28">
+        <v>0.96</v>
+      </c>
+      <c r="Z21" s="28">
+        <v>0.96</v>
+      </c>
+      <c r="AA21" s="28">
+        <v>0.96</v>
+      </c>
+      <c r="AB21" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3869,11 +4188,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A08068-3C5B-4BAA-B23C-6C544A1FFCBF}">
-  <dimension ref="A1:AB48"/>
+  <dimension ref="A1:AB69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4012,10 +4331,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" s="26"/>
       <c r="J3" s="2">
@@ -4399,6 +4718,270 @@
       </c>
       <c r="D48" s="4">
         <v>0.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="22"/>
+      <c r="B54" s="2">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2">
+        <v>15</v>
+      </c>
+      <c r="D54" s="2">
+        <v>28</v>
+      </c>
+      <c r="E54" s="18">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0</v>
+      </c>
+      <c r="G54" s="2">
+        <v>2</v>
+      </c>
+      <c r="H54" s="2">
+        <v>2</v>
+      </c>
+      <c r="I54" s="23"/>
+      <c r="J54" s="2">
+        <v>15</v>
+      </c>
+      <c r="K54" s="2">
+        <v>32</v>
+      </c>
+      <c r="L54" s="2">
+        <v>4</v>
+      </c>
+      <c r="M54" s="2">
+        <v>1</v>
+      </c>
+      <c r="N54" s="2">
+        <v>3</v>
+      </c>
+      <c r="O54" s="2">
+        <v>2</v>
+      </c>
+      <c r="P54" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q54" s="24">
+        <v>2048</v>
+      </c>
+      <c r="R54" s="2">
+        <v>200</v>
+      </c>
+      <c r="S54" s="23">
+        <v>200</v>
+      </c>
+      <c r="T54" s="2">
+        <v>200</v>
+      </c>
+      <c r="U54" s="23">
+        <v>200</v>
+      </c>
+      <c r="V54" s="2">
+        <v>10</v>
+      </c>
+      <c r="W54" s="25">
+        <v>0.91</v>
+      </c>
+      <c r="X54" s="28">
+        <v>0.96</v>
+      </c>
+      <c r="Y54" s="28">
+        <v>0.96</v>
+      </c>
+      <c r="Z54" s="28">
+        <v>0.96</v>
+      </c>
+      <c r="AA54" s="28">
+        <v>0.96</v>
+      </c>
+      <c r="AB54" s="28"/>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="G56" s="4">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C58" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C59" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C60" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="22"/>
+      <c r="B63" s="2">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2">
+        <v>15</v>
+      </c>
+      <c r="D63" s="2">
+        <v>28</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0</v>
+      </c>
+      <c r="G63" s="18">
+        <v>0</v>
+      </c>
+      <c r="H63" s="18">
+        <v>0</v>
+      </c>
+      <c r="I63" s="23"/>
+      <c r="J63" s="2">
+        <v>15</v>
+      </c>
+      <c r="K63" s="2">
+        <v>32</v>
+      </c>
+      <c r="L63" s="2">
+        <v>4</v>
+      </c>
+      <c r="M63" s="2">
+        <v>1</v>
+      </c>
+      <c r="N63" s="2">
+        <v>3</v>
+      </c>
+      <c r="O63" s="2">
+        <v>2</v>
+      </c>
+      <c r="P63" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q63" s="24">
+        <v>8192</v>
+      </c>
+      <c r="R63" s="2">
+        <v>200</v>
+      </c>
+      <c r="S63" s="23">
+        <v>200</v>
+      </c>
+      <c r="T63" s="2">
+        <v>200</v>
+      </c>
+      <c r="U63" s="23">
+        <v>200</v>
+      </c>
+      <c r="V63" s="2">
+        <v>10</v>
+      </c>
+      <c r="W63" s="25">
+        <v>0.91</v>
+      </c>
+      <c r="X63" s="28">
+        <v>0.96</v>
+      </c>
+      <c r="Y63" s="28">
+        <v>0.96</v>
+      </c>
+      <c r="Z63" s="28">
+        <v>0.96</v>
+      </c>
+      <c r="AA63" s="28">
+        <v>0.96</v>
+      </c>
+      <c r="AB63" s="28"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="F65" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="G65" s="4">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C66" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C67" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C68" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C69" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0.97</v>
       </c>
     </row>
   </sheetData>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\630IS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\630IS\Workspace\exploring-generalizations-in-deep-networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2E35B4-BC27-4F1A-8034-14C16CAC137F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09933CF1-609C-43E3-AE8C-786520579F7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{BC6C4450-996F-4A64-8F0A-6B6045CA1229}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BC6C4450-996F-4A64-8F0A-6B6045CA1229}"/>
   </bookViews>
   <sheets>
     <sheet name="Filter1 size and Numbers" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="37">
   <si>
     <t>Conv1</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>20b20</t>
-  </si>
-  <si>
-    <t>Randomly</t>
   </si>
   <si>
     <t>Q1</t>
@@ -283,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -312,7 +309,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -633,7 +629,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3005,9 +3001,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A61229-672F-4D5B-8534-B6D70DAB54ED}">
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3927,21 +3923,22 @@
       <c r="W15" s="25">
         <v>0.33</v>
       </c>
-      <c r="X15" s="28">
+      <c r="X15" s="27">
         <v>0.86</v>
       </c>
-      <c r="Y15" s="28">
+      <c r="Y15" s="27">
         <v>0.95</v>
       </c>
-      <c r="Z15" s="28">
+      <c r="Z15" s="27">
         <v>0.75</v>
       </c>
-      <c r="AA15" s="28">
+      <c r="AA15" s="27">
         <v>0.78</v>
       </c>
-      <c r="AB15" s="28"/>
+      <c r="AB15" s="27"/>
     </row>
     <row r="16" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
       <c r="B16" s="2">
         <v>1</v>
       </c>
@@ -4006,19 +4003,19 @@
       <c r="W16" s="25">
         <v>0.96</v>
       </c>
-      <c r="X16" s="28">
+      <c r="X16" s="27">
         <v>0.96</v>
       </c>
-      <c r="Y16" s="28">
+      <c r="Y16" s="27">
         <v>0.96</v>
       </c>
-      <c r="Z16" s="28">
+      <c r="Z16" s="27">
         <v>0.96</v>
       </c>
-      <c r="AA16" s="28">
+      <c r="AA16" s="27">
         <v>0.96</v>
       </c>
-      <c r="AB16" s="28"/>
+      <c r="AB16" s="27"/>
     </row>
     <row r="20" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
@@ -4084,21 +4081,21 @@
         <v>10</v>
       </c>
       <c r="W20" s="25">
-        <v>0.91</v>
-      </c>
-      <c r="X20" s="28">
         <v>0.96</v>
       </c>
-      <c r="Y20" s="28">
+      <c r="X20" s="27">
         <v>0.96</v>
       </c>
-      <c r="Z20" s="28">
+      <c r="Y20" s="27">
         <v>0.96</v>
       </c>
-      <c r="AA20" s="28">
+      <c r="Z20" s="27">
         <v>0.96</v>
       </c>
-      <c r="AB20" s="28"/>
+      <c r="AA20" s="27">
+        <v>0.96</v>
+      </c>
+      <c r="AB20" s="27"/>
     </row>
     <row r="21" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
@@ -4166,19 +4163,19 @@
       <c r="W21" s="25">
         <v>0.91</v>
       </c>
-      <c r="X21" s="28">
+      <c r="X21" s="27">
         <v>0.96</v>
       </c>
-      <c r="Y21" s="28">
+      <c r="Y21" s="27">
         <v>0.96</v>
       </c>
-      <c r="Z21" s="28">
+      <c r="Z21" s="27">
         <v>0.96</v>
       </c>
-      <c r="AA21" s="28">
+      <c r="AA21" s="27">
         <v>0.96</v>
       </c>
-      <c r="AB21" s="28"/>
+      <c r="AB21" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4188,17 +4185,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A08068-3C5B-4BAA-B23C-6C544A1FFCBF}">
-  <dimension ref="A1:AB69"/>
+  <dimension ref="A1:AB63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="11.7109375" style="1" customWidth="1"/>
@@ -4313,9 +4310,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2">
@@ -4324,19 +4321,19 @@
       <c r="D3" s="2">
         <v>28</v>
       </c>
-      <c r="E3" s="2">
-        <v>28</v>
+      <c r="E3" s="18">
+        <v>1</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="1">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2</v>
-      </c>
-      <c r="I3" s="26"/>
+      <c r="G3" s="2">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="23"/>
       <c r="J3" s="2">
         <v>15</v>
       </c>
@@ -4352,54 +4349,54 @@
       <c r="N3" s="2">
         <v>3</v>
       </c>
-      <c r="O3" s="18">
-        <v>2</v>
-      </c>
-      <c r="P3" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="19">
-        <v>128</v>
-      </c>
-      <c r="R3" s="1">
-        <v>200</v>
-      </c>
-      <c r="S3" s="12">
-        <v>200</v>
-      </c>
-      <c r="T3" s="1">
-        <v>200</v>
-      </c>
-      <c r="U3" s="12">
-        <v>200</v>
-      </c>
-      <c r="V3" s="1">
-        <v>10</v>
-      </c>
-      <c r="W3" s="16">
-        <v>0.92</v>
-      </c>
-      <c r="X3" s="4">
-        <v>0.86</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>0.87</v>
-      </c>
-      <c r="Z3" s="4">
+      <c r="O3" s="2">
+        <v>2</v>
+      </c>
+      <c r="P3" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="24">
+        <v>2048</v>
+      </c>
+      <c r="R3" s="2">
+        <v>200</v>
+      </c>
+      <c r="S3" s="23">
+        <v>200</v>
+      </c>
+      <c r="T3" s="2">
+        <v>200</v>
+      </c>
+      <c r="U3" s="23">
+        <v>200</v>
+      </c>
+      <c r="V3" s="2">
+        <v>10</v>
+      </c>
+      <c r="W3" s="25">
         <v>0.96</v>
       </c>
-      <c r="AA3" s="4">
-        <v>0.72</v>
-      </c>
-      <c r="AB3" s="4"/>
+      <c r="X3" s="27">
+        <v>0.96</v>
+      </c>
+      <c r="Y3" s="27">
+        <v>0.96</v>
+      </c>
+      <c r="Z3" s="27">
+        <v>0.96</v>
+      </c>
+      <c r="AA3" s="27">
+        <v>0.96</v>
+      </c>
+      <c r="AB3" s="27"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4440,7 +4437,7 @@
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="4">
@@ -4463,16 +4460,16 @@
         <v>29</v>
       </c>
       <c r="D19" s="4">
-        <v>0.65</v>
+        <v>0.96</v>
       </c>
       <c r="E19" s="4">
-        <v>0.65</v>
+        <v>0.96</v>
       </c>
       <c r="F19" s="4">
-        <v>0.65</v>
+        <v>0.96</v>
       </c>
       <c r="G19" s="4">
-        <v>0.65</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -4480,7 +4477,7 @@
         <v>27</v>
       </c>
       <c r="D20" s="4">
-        <v>0.6</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
@@ -4488,15 +4485,15 @@
         <v>28</v>
       </c>
       <c r="D21" s="4">
-        <v>0.56999999999999995</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="4">
-        <v>0.54</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -4504,7 +4501,7 @@
         <v>31</v>
       </c>
       <c r="D23" s="4">
-        <v>0.54</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
@@ -4532,7 +4529,7 @@
         <v>27</v>
       </c>
       <c r="D26" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -4544,11 +4541,11 @@
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="4">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -4556,7 +4553,7 @@
         <v>31</v>
       </c>
       <c r="D29" s="4">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -4584,403 +4581,349 @@
         <v>27</v>
       </c>
       <c r="D32" s="4">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C33" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="4">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="27" t="s">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C34" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D34" s="4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C35" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D35" s="4">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="1" t="s">
+    </row>
+    <row r="38" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="4">
-        <v>0.96</v>
-      </c>
-      <c r="E37" s="4">
-        <v>0.96</v>
-      </c>
-      <c r="F37" s="4">
-        <v>0.96</v>
-      </c>
-      <c r="G37" s="4">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D38" s="4">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="D39" s="4">
         <v>0.13</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="27" t="s">
+    <row r="40" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C41" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="4">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="4">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C42" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="4">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F42" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="D42" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2">
+        <v>15</v>
+      </c>
+      <c r="D48" s="2">
+        <v>28</v>
+      </c>
+      <c r="E48" s="18">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2">
+        <v>2</v>
+      </c>
+      <c r="H48" s="2">
+        <v>2</v>
+      </c>
+      <c r="I48" s="23"/>
+      <c r="J48" s="2">
+        <v>15</v>
+      </c>
+      <c r="K48" s="2">
+        <v>32</v>
+      </c>
+      <c r="L48" s="2">
+        <v>4</v>
+      </c>
+      <c r="M48" s="2">
+        <v>1</v>
+      </c>
+      <c r="N48" s="2">
+        <v>3</v>
+      </c>
+      <c r="O48" s="2">
+        <v>2</v>
+      </c>
+      <c r="P48" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q48" s="24">
+        <v>2048</v>
+      </c>
+      <c r="R48" s="2">
+        <v>200</v>
+      </c>
+      <c r="S48" s="23">
+        <v>200</v>
+      </c>
+      <c r="T48" s="2">
+        <v>200</v>
+      </c>
+      <c r="U48" s="23">
+        <v>200</v>
+      </c>
+      <c r="V48" s="2">
+        <v>10</v>
+      </c>
+      <c r="W48" s="25">
+        <v>0.91</v>
+      </c>
+      <c r="X48" s="27">
+        <v>0.96</v>
+      </c>
+      <c r="Y48" s="27">
+        <v>0.96</v>
+      </c>
+      <c r="Z48" s="27">
+        <v>0.96</v>
+      </c>
+      <c r="AA48" s="27">
+        <v>0.96</v>
+      </c>
+      <c r="AB48" s="27"/>
+    </row>
+    <row r="50" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D50" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="51" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="52" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="53" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C53" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="4">
         <v>0.95</v>
       </c>
-      <c r="E44" s="4">
-        <v>0.95</v>
-      </c>
-      <c r="F44" s="4">
-        <v>0.95</v>
-      </c>
-      <c r="G44" s="4">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="1" t="s">
+    </row>
+    <row r="54" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C54" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="57" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="2">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2">
+        <v>15</v>
+      </c>
+      <c r="D57" s="2">
+        <v>28</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
+      <c r="G57" s="18">
+        <v>0</v>
+      </c>
+      <c r="H57" s="18">
+        <v>0</v>
+      </c>
+      <c r="I57" s="23"/>
+      <c r="J57" s="2">
+        <v>15</v>
+      </c>
+      <c r="K57" s="2">
+        <v>32</v>
+      </c>
+      <c r="L57" s="2">
+        <v>4</v>
+      </c>
+      <c r="M57" s="2">
+        <v>1</v>
+      </c>
+      <c r="N57" s="2">
+        <v>3</v>
+      </c>
+      <c r="O57" s="2">
+        <v>2</v>
+      </c>
+      <c r="P57" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q57" s="24">
+        <v>8192</v>
+      </c>
+      <c r="R57" s="2">
+        <v>200</v>
+      </c>
+      <c r="S57" s="23">
+        <v>200</v>
+      </c>
+      <c r="T57" s="2">
+        <v>200</v>
+      </c>
+      <c r="U57" s="23">
+        <v>200</v>
+      </c>
+      <c r="V57" s="2">
+        <v>10</v>
+      </c>
+      <c r="W57" s="25">
+        <v>0.91</v>
+      </c>
+      <c r="X57" s="27">
+        <v>0.96</v>
+      </c>
+      <c r="Y57" s="27">
+        <v>0.96</v>
+      </c>
+      <c r="Z57" s="27">
+        <v>0.96</v>
+      </c>
+      <c r="AA57" s="27">
+        <v>0.96</v>
+      </c>
+      <c r="AB57" s="27"/>
+    </row>
+    <row r="59" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="60" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C60" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="4">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C46" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="4">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="27" t="s">
+      <c r="D60" s="4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="61" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C61" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="62" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C62" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="4">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C48" s="2" t="s">
+      <c r="D62" s="4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="63" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C63" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="2">
-        <v>1</v>
-      </c>
-      <c r="C54" s="2">
-        <v>15</v>
-      </c>
-      <c r="D54" s="2">
-        <v>28</v>
-      </c>
-      <c r="E54" s="18">
-        <v>1</v>
-      </c>
-      <c r="F54" s="2">
-        <v>0</v>
-      </c>
-      <c r="G54" s="2">
-        <v>2</v>
-      </c>
-      <c r="H54" s="2">
-        <v>2</v>
-      </c>
-      <c r="I54" s="23"/>
-      <c r="J54" s="2">
-        <v>15</v>
-      </c>
-      <c r="K54" s="2">
-        <v>32</v>
-      </c>
-      <c r="L54" s="2">
-        <v>4</v>
-      </c>
-      <c r="M54" s="2">
-        <v>1</v>
-      </c>
-      <c r="N54" s="2">
-        <v>3</v>
-      </c>
-      <c r="O54" s="2">
-        <v>2</v>
-      </c>
-      <c r="P54" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q54" s="24">
-        <v>2048</v>
-      </c>
-      <c r="R54" s="2">
-        <v>200</v>
-      </c>
-      <c r="S54" s="23">
-        <v>200</v>
-      </c>
-      <c r="T54" s="2">
-        <v>200</v>
-      </c>
-      <c r="U54" s="23">
-        <v>200</v>
-      </c>
-      <c r="V54" s="2">
-        <v>10</v>
-      </c>
-      <c r="W54" s="25">
-        <v>0.91</v>
-      </c>
-      <c r="X54" s="28">
-        <v>0.96</v>
-      </c>
-      <c r="Y54" s="28">
-        <v>0.96</v>
-      </c>
-      <c r="Z54" s="28">
-        <v>0.96</v>
-      </c>
-      <c r="AA54" s="28">
-        <v>0.96</v>
-      </c>
-      <c r="AB54" s="28"/>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D56" s="4">
-        <v>0.91</v>
-      </c>
-      <c r="E56" s="4">
-        <v>0.91</v>
-      </c>
-      <c r="F56" s="4">
-        <v>0.94</v>
-      </c>
-      <c r="G56" s="4">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C57" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D57" s="4">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C58" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="4">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C59" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D59" s="4">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C60" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D60" s="4">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="63" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
-      <c r="B63" s="2">
-        <v>1</v>
-      </c>
-      <c r="C63" s="2">
-        <v>15</v>
-      </c>
-      <c r="D63" s="2">
-        <v>28</v>
-      </c>
-      <c r="E63" s="2">
-        <v>1</v>
-      </c>
-      <c r="F63" s="2">
-        <v>0</v>
-      </c>
-      <c r="G63" s="18">
-        <v>0</v>
-      </c>
-      <c r="H63" s="18">
-        <v>0</v>
-      </c>
-      <c r="I63" s="23"/>
-      <c r="J63" s="2">
-        <v>15</v>
-      </c>
-      <c r="K63" s="2">
-        <v>32</v>
-      </c>
-      <c r="L63" s="2">
-        <v>4</v>
-      </c>
-      <c r="M63" s="2">
-        <v>1</v>
-      </c>
-      <c r="N63" s="2">
-        <v>3</v>
-      </c>
-      <c r="O63" s="2">
-        <v>2</v>
-      </c>
-      <c r="P63" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q63" s="24">
-        <v>8192</v>
-      </c>
-      <c r="R63" s="2">
-        <v>200</v>
-      </c>
-      <c r="S63" s="23">
-        <v>200</v>
-      </c>
-      <c r="T63" s="2">
-        <v>200</v>
-      </c>
-      <c r="U63" s="23">
-        <v>200</v>
-      </c>
-      <c r="V63" s="2">
-        <v>10</v>
-      </c>
-      <c r="W63" s="25">
-        <v>0.91</v>
-      </c>
-      <c r="X63" s="28">
-        <v>0.96</v>
-      </c>
-      <c r="Y63" s="28">
-        <v>0.96</v>
-      </c>
-      <c r="Z63" s="28">
-        <v>0.96</v>
-      </c>
-      <c r="AA63" s="28">
-        <v>0.96</v>
-      </c>
-      <c r="AB63" s="28"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D65" s="4">
-        <v>0.94</v>
-      </c>
-      <c r="E65" s="4">
-        <v>0.93</v>
-      </c>
-      <c r="F65" s="4">
-        <v>0.92</v>
-      </c>
-      <c r="G65" s="4">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C66" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D66" s="4">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C67" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D67" s="4">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D68" s="4">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D69" s="4">
+      <c r="D63" s="4">
         <v>0.97</v>
       </c>
     </row>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\630IS\Workspace\exploring-generalizations-in-deep-networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09933CF1-609C-43E3-AE8C-786520579F7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028EC14A-14D7-44BF-A47D-6FE734B7170F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BC6C4450-996F-4A64-8F0A-6B6045CA1229}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{BC6C4450-996F-4A64-8F0A-6B6045CA1229}"/>
   </bookViews>
   <sheets>
     <sheet name="Filter1 size and Numbers" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="38">
   <si>
     <t>Conv1</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>Random Quadrants</t>
+  </si>
+  <si>
+    <t>Quadrant independent images</t>
   </si>
 </sst>
 </file>
@@ -3001,9 +3004,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A61229-672F-4D5B-8534-B6D70DAB54ED}">
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4187,9 +4190,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A08068-3C5B-4BAA-B23C-6C544A1FFCBF}">
   <dimension ref="A1:AB63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4400,272 +4403,277 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D15" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D20" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="4">
         <v>0.12</v>
       </c>
-      <c r="E13" s="4">
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F31" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C36" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="4">
         <v>0.12</v>
       </c>
-      <c r="F13" s="4">
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="4">
         <v>0.12</v>
       </c>
-      <c r="G13" s="4">
+      <c r="E39" s="4">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C14" s="1" t="s">
+      <c r="F39" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D40" s="4">
         <v>0.95</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="4">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="4">
         <v>0.13</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C16" s="26" t="s">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C42" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D42" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="2" t="s">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C43" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D43" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.96</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0.96</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0.96</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0.96</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0.96</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0.96</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0.96</v>
-      </c>
-      <c r="E31" s="4">
-        <v>0.96</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0.96</v>
-      </c>
-      <c r="G31" s="4">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="4">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="C33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="4">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="C34" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="4">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="C35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="4">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="F36" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="4">
-        <v>0.95</v>
-      </c>
-      <c r="E38" s="4">
-        <v>0.95</v>
-      </c>
-      <c r="F38" s="4">
-        <v>0.95</v>
-      </c>
-      <c r="G38" s="4">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="C39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="4">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="C40" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" s="4">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="C41" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="4">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="C42" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <v>1</v>
       </c>
